--- a/data/Wire_TestCase.xlsx
+++ b/data/Wire_TestCase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2EE5943-806B-4DBE-BA39-352ECB7521D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF12C04-F9D9-405F-83D0-1556B15BFED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A90D6DE-78C4-4333-8876-517A47B5C687}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login and Session Management" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +47,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steps </t>
   </si>
   <si>
     <t>Expected</t>
@@ -167,7 +165,148 @@
 Then I see both users are parallely logged in their respective browsers</t>
   </si>
   <si>
-    <t xml:space="preserve">Different users can login using </t>
+    <t>Different users can login using differnt broswers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different users logged in </t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veriify the parallel login in same browsers </t>
+  </si>
+  <si>
+    <t>Given I am using two tabs of same browsers i.e. Chrome 
+And I login in Chrome as user "Aura Schaefer".
+When I try to login in same browser using different user "Eloy Funk"
+Then I see a warning on being logged out from other browser
+And I click on Continue
+And I am logged out of previous browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should see message : 
+"Wire is already open in this browser
+If you continue here, you will be logged out on the other tab."
+User should be logged out as soon as he clicks on Continue button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working as expected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that closing the tab and open again retains user session </t>
+  </si>
+  <si>
+    <t>Given i logged in as user "Aura Schaefer"
+And I close the Chrome tab 
+And I open a new window 
+Then I see that I dont login again
+And I see that the user is logged in as "Aura Schaefer"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review attached in findings </t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that closing the tab and open again retains user 
+session - Incognito window </t>
+  </si>
+  <si>
+    <t>Given I open a new incognito window 
+And i logged in as user "Aura Schaefer"
+And I close the Chrome tab 
+And I open a new incognito window 
+Then I see that I land up on the login page again
+And I see that the user is logged out  as "Aura Schaefer"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be no saved user session when app is
+ opened in y complete new incognito window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is logged out y and asked to login again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify hitting deep links URL while being unauthenticated </t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>Given I open a new normal Chrome window 
+And I am logged in as "Aura Schaefer"
+And I Logout myself 
+When i try to directly access the &lt; deeplinks &gt; 
+Then I am always redirected to the login page 
+| deeplinks |
+| https://wire-webapp-dev.zinfra.io/#/conversation/47f069db-71bc-595a-b9ac-cc4056bece07/staging.zinfra.io |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After logout , user should redirected to Login page 
+when trying to directlyy access deep links URL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is redirected to the Login page while 
+trying to access the link directly </t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify hitting deep links URL of an unauthiorized conversation 
+while being authenticated as another user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I open a new normal Chrome window 
+And I am logged in as "Aura Schaefer"
+And I Logout myself 
+And I login again as "Deena Green"
+When I try to hit the &lt;deeplinks&gt;
+Then I get an error message of unauthorized access. </t>
+  </si>
+  <si>
+    <t>User should get an error message :-
+"Wire coudnt open this conversation.
+You may not have permission with this account or it may no longer exists"</t>
+  </si>
+  <si>
+    <t>Saw the popup with the expected message</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>Functional / Session based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that going back on browser still keeps the user logged in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I am on the login page 
+And I login as a user "Aura Schaefer"
+And I click on back arrow button on web browser 
+And I see the login page again.
+When I click on forward arrow again 
+Then I am on the user main page of Wire
+And I dont need to login again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be logged in even after going back and 
+forth in browser in same session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User haes been logged out </t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -198,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +361,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -246,12 +397,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -262,6 +450,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -269,6 +467,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -577,18 +782,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E172A7-76E5-4025-8D6C-764B059154DA}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+    <col min="5" max="5" width="80.140625" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
@@ -608,16 +813,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,26 +837,26 @@
     </row>
     <row r="3" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,26 +871,26 @@
     </row>
     <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,26 +905,26 @@
     </row>
     <row r="7" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -734,26 +939,26 @@
     </row>
     <row r="9" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,23 +973,27 @@
     </row>
     <row r="11" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -796,15 +1005,29 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:8" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -816,15 +1039,25 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -836,15 +1069,29 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -856,15 +1103,29 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -876,15 +1137,29 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -896,8 +1171,47 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
+    <row r="23" spans="1:8" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F15:H15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF67DB76-0240-4F2C-B5C1-C6F120CEEC8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>